--- a/REVER_DailyTracker_20200616.xlsx
+++ b/REVER_DailyTracker_20200616.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A53ADCC-0D3D-4AE7-BBCC-1C20E7604DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -73,19 +79,24 @@
   <si>
     <t>Retested B2C app issues</t>
   </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>Creditinfo bug was corrected</t>
+  </si>
+  <si>
+    <t>Invoice Update log information was added</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,155 +130,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,7 +149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,188 +171,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -534,262 +221,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -818,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -851,63 +296,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1165,27 +567,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1209,7 +611,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="25" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="26"/>
@@ -1227,23 +629,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1274,29 +676,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="51.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1362,7 +762,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1383,21 +783,21 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="21" spans="3:3">
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="21" spans="2:3">
       <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
@@ -1428,29 +828,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1494,23 +892,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1541,29 +939,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1589,7 +985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1600,7 +996,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1611,23 +1007,23 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1658,29 +1054,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1724,23 +1118,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1771,29 +1165,248 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="12"/>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="10"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="11"/>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1837,23 +1450,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1884,131 +1497,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="13"/>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2052,23 +1561,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2099,29 +1608,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2165,23 +1672,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2212,29 +1719,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2278,23 +1783,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2325,120 +1830,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/REVER_DailyTracker_20200616.xlsx
+++ b/REVER_DailyTracker_20200616.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5087DEC2-61C7-46EF-83FA-ECB5BB9B26EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8791842-65D8-4D5B-B463-4D71B86D2920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="59">
   <si>
     <t>Task</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>Learning and Supporting GSS website editing  in wordpress</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Looking Issue in DSR with Mohan San and Find the issue By Mohan San</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Go through Soica Project and create DB</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -235,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +272,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,10 +367,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -374,9 +410,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{897CF3AA-58A5-4D48-84A0-E23F2BD8399E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,22 +732,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -727,7 +768,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -737,8 +778,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -750,7 +791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -761,10 +802,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -778,9 +819,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -794,9 +835,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -810,8 +851,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -828,19 +869,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -858,13 +899,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -878,7 +919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -892,7 +933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -900,7 +941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -908,12 +949,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -921,7 +962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -932,7 +973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -943,7 +984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -954,12 +995,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -970,7 +1011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -981,12 +1022,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -994,7 +1035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1010,7 +1051,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1018,12 +1059,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1031,7 +1072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1039,7 +1080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1047,7 +1088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1055,12 +1096,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1091,18 +1132,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1134,7 +1175,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1143,46 +1184,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1199,22 +1240,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1237,64 +1278,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="31.5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>43998</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43998</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43998</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1315,18 +1388,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1358,7 +1431,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1367,46 +1440,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1427,18 +1500,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1461,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1470,7 +1543,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1479,46 +1552,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1539,18 +1612,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1594,7 +1667,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1603,46 +1676,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1663,18 +1736,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1706,7 +1779,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1715,46 +1788,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1775,18 +1848,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1818,7 +1891,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1827,46 +1900,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1887,18 +1960,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1930,7 +2003,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1939,46 +2012,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1999,18 +2072,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2042,7 +2115,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2051,46 +2124,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200616.xlsx
+++ b/REVER_DailyTracker_20200616.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8791842-65D8-4D5B-B463-4D71B86D2920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE617AFB-1566-4B1C-8F8A-D4FE906AD06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Deployment</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>Invoice Update Changes,errors are corrected</t>
   </si>
 </sst>
 </file>
@@ -736,15 +742,15 @@
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -779,7 +785,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -805,7 +811,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -837,7 +843,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -905,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -919,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -933,7 +939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -941,7 +947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -962,7 +968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -973,7 +979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1096,12 +1102,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1132,15 +1138,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1240,19 +1246,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1278,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5">
+    <row r="2" spans="1:7" ht="31.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1295,7 +1301,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1312,7 +1318,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1388,15 +1394,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1496,19 +1502,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1537,10 +1543,18 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1612,15 +1626,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1736,15 +1750,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1848,15 +1862,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1960,15 +1974,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2072,15 +2086,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
